--- a/data_result/DuoPinDian.xlsx
+++ b/data_result/DuoPinDian.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mzx\大三课件\9161040G0826\北斗杯\BeiDou\data_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C639AAB-912F-4CD7-9D31-C057F621A39F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D1940D-56DD-4D36-94CA-804FCD04F2BE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{BC7F381B-E872-4989-B8CA-088035FE473B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -31,14 +26,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,7 +122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -162,26 +155,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -214,23 +190,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,1017 +332,1012 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E966834-7AFA-4021-9FB6-B88B0D385973}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-27.297986105186531</v>
+        <v>-10.624817438115034</v>
       </c>
       <c r="B1">
-        <v>-21.425685060529403</v>
+        <v>-12.058637390232828</v>
       </c>
       <c r="C1">
-        <v>-33.027429743276173</v>
+        <v>-12.173490693546942</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-27.310809934776799</v>
+        <v>-10.650156039152387</v>
       </c>
       <c r="B2">
-        <v>-21.427504973305322</v>
+        <v>-12.042043839270137</v>
       </c>
       <c r="C2">
-        <v>-33.010473463906465</v>
+        <v>-12.021665703402995</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-27.290301680187742</v>
+        <v>-10.681898396862849</v>
       </c>
       <c r="B3">
-        <v>-21.421916182872156</v>
+        <v>-12.019681691773588</v>
       </c>
       <c r="C3">
-        <v>-32.959771409155771</v>
+        <v>-11.740271938503049</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-27.23676650468752</v>
+        <v>-10.719732079979661</v>
       </c>
       <c r="B4">
-        <v>-21.409378448748441</v>
+        <v>-11.991741225917277</v>
       </c>
       <c r="C4">
-        <v>-32.878384983903153</v>
+        <v>-11.400346177757541</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-27.151180117685406</v>
+        <v>-10.763285355469732</v>
       </c>
       <c r="B5">
-        <v>-21.390690154352356</v>
+        <v>-11.958609165584297</v>
       </c>
       <c r="C5">
-        <v>-32.771261272251543</v>
+        <v>-11.032373586360094</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-27.035167057584779</v>
+        <v>-10.812164066320477</v>
       </c>
       <c r="B6">
-        <v>-21.366980326447912</v>
+        <v>-11.920953895098382</v>
       </c>
       <c r="C6">
-        <v>-32.645032817394117</v>
+        <v>-10.654055304344221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-26.89095972169072</v>
+        <v>-10.865986139460023</v>
       </c>
       <c r="B7">
-        <v>-21.339697233269099</v>
+        <v>-11.87978546517289</v>
       </c>
       <c r="C7">
-        <v>-32.507776978825788</v>
+        <v>-10.278597435152053</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-26.721339535065312</v>
+        <v>-10.924414187418432</v>
       </c>
       <c r="B8">
-        <v>-21.310593373534736</v>
+        <v>-11.836481178925826</v>
       </c>
       <c r="C8">
-        <v>-32.368761437357378</v>
+        <v>-9.91707383678553</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-26.529566495469528</v>
+        <v>-10.987181183653824</v>
       </c>
       <c r="B9">
-        <v>-21.281707050754189</v>
+        <v>-11.792771821946308</v>
       </c>
       <c r="C9">
-        <v>-32.238194818088992</v>
+        <v>-9.5794364598287913</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-26.31930065131116</v>
+        <v>-11.0541053751672</v>
       </c>
       <c r="B10">
-        <v>-21.25533991452313</v>
+        <v>-11.750684479071037</v>
       </c>
       <c r="C10">
-        <v>-32.126984968206017</v>
+        <v>-9.2751353943894834</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-26.094519994784584</v>
+        <v>-11.125097857105395</v>
       </c>
       <c r="B11">
-        <v>-21.234030168765873</v>
+        <v>-11.712437486374615</v>
       </c>
       <c r="C11">
-        <v>-32.046482401824768</v>
+        <v>-9.0136008463628841</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-25.859445207604669</v>
+        <v>-11.200165749669873</v>
       </c>
       <c r="B12">
-        <v>-21.220520316028221</v>
+        <v>-11.680281076904757</v>
       </c>
       <c r="C12">
-        <v>-32.008144150990347</v>
+        <v>-8.8046851037400842</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-25.618473383771811</v>
+        <v>-11.279399794902796</v>
       </c>
       <c r="B13">
-        <v>-21.217717577524017</v>
+        <v>-11.656275197390515</v>
       </c>
       <c r="C13">
-        <v>-32.022981686351642</v>
+        <v>-8.6591263605598137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-25.376120874443441</v>
+        <v>-11.362956118988352</v>
       </c>
       <c r="B14">
-        <v>-21.228644299939766</v>
+        <v>-11.641993236608227</v>
       </c>
       <c r="C14">
-        <v>-32.100524490008333</v>
+        <v>-8.5890962348861102</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-25.136984196173522</v>
+        <v>-11.451020988070315</v>
       </c>
       <c r="B15">
-        <v>-21.256374192101774</v>
+        <v>-11.638139141679913</v>
       </c>
       <c r="C15">
-        <v>-32.246791536364086</v>
+        <v>-8.6089137556506508</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-24.905713051018079</v>
+        <v>-11.543775928167543</v>
       </c>
       <c r="B16">
-        <v>-21.303948264088604</v>
+        <v>-11.64406861635757</v>
       </c>
       <c r="C16">
-        <v>-32.460358476191928</v>
+        <v>-8.7360540983513655</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-24.686998671210645</v>
+        <v>-11.64133082674091</v>
       </c>
       <c r="B17">
-        <v>-21.374261994915269</v>
+        <v>-11.657219015682344</v>
       </c>
       <c r="C17">
-        <v>-32.725104747871733</v>
+        <v>-8.9926730701718061</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-24.485583709491344</v>
+        <v>-11.743662124470307</v>
       </c>
       <c r="B18">
-        <v>-21.469911918109442</v>
+        <v>-11.672487539073465</v>
       </c>
       <c r="C18">
-        <v>-32.998321078492367</v>
+        <v>-9.4080568255591892</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-24.306276666588204</v>
+        <v>-11.850525628608676</v>
       </c>
       <c r="B19">
-        <v>-21.592986761661066</v>
+        <v>-11.681666546829719</v>
       </c>
       <c r="C19">
-        <v>-33.196262969266598</v>
+        <v>-10.022816191648211</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-24.153988866838318</v>
+        <v>-11.961361081294102</v>
       </c>
       <c r="B20">
-        <v>-21.744784729909789</v>
+        <v>-11.673153905434255</v>
       </c>
       <c r="C20">
-        <v>-33.191031260657141</v>
+        <v>-10.896609747470883</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-24.033784622491364</v>
+        <v>-12.075197087121479</v>
       </c>
       <c r="B21">
-        <v>-21.925438422134384</v>
+        <v>-11.632283762131788</v>
       </c>
       <c r="C21">
-        <v>-32.847680385732183</v>
+        <v>-12.123706568692185</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-23.950949092926024</v>
+        <v>-12.190553096516322</v>
       </c>
       <c r="B22">
-        <v>-22.133435317145892</v>
+        <v>-11.542680997484535</v>
       </c>
       <c r="C22">
-        <v>-32.105978109671319</v>
+        <v>-13.868289650447812</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-23.911077236319677</v>
+        <v>-12.305369426526893</v>
       </c>
       <c r="B23">
-        <v>-22.36504298318216</v>
+        <v>-11.388871623754524</v>
       </c>
       <c r="C23">
-        <v>-31.031488319832199</v>
+        <v>-16.458733729932241</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-23.920186982028596</v>
+        <v>-12.416972122269325</v>
       </c>
       <c r="B24">
-        <v>-22.613698173045531</v>
+        <v>-11.15985233677727</v>
       </c>
       <c r="C24">
-        <v>-29.769366644262433</v>
+        <v>-20.701542994051216</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-23.984874560642353</v>
+        <v>-12.522106957499236</v>
       </c>
       <c r="B25">
-        <v>-22.869510024633307</v>
+        <v>-10.852582060084766</v>
       </c>
       <c r="C25">
-        <v>-28.46178050182619</v>
+        <v>-28.482308412747752</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-24.112511887180798</v>
+        <v>-12.617082182655723</v>
       </c>
       <c r="B26">
-        <v>-23.119161786920763</v>
+        <v>-10.473960358757923</v>
       </c>
       <c r="C26">
-        <v>-27.207962243974954</v>
+        <v>-24.139114055342912</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-24.311524447527372</v>
+        <v>-12.698016980625892</v>
       </c>
       <c r="B27">
-        <v>-23.346628086146467</v>
+        <v>-10.040352932292206</v>
       </c>
       <c r="C27">
-        <v>-26.066065518355316</v>
+        <v>-17.488941496905692</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-24.591775484253727</v>
+        <v>-12.761234875144005</v>
       </c>
       <c r="B28">
-        <v>-23.535126505362932</v>
+        <v>-9.5749322016833158</v>
       </c>
       <c r="C28">
-        <v>-25.067663748368187</v>
+        <v>-13.525730705212361</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-24.965118854342556</v>
+        <v>-12.803750053652564</v>
       </c>
       <c r="B29">
-        <v>-23.670400707796567</v>
+        <v>-9.1040982109988118</v>
       </c>
       <c r="C29">
-        <v>-24.230041078206774</v>
+        <v>-10.79291178606865</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-25.446227313743506</v>
+        <v>-12.823811380241361</v>
       </c>
       <c r="B30">
-        <v>-23.744716600709125</v>
+        <v>-8.6543370519153839</v>
       </c>
       <c r="C30">
-        <v>-23.563757941677341</v>
+        <v>-8.773300255215581</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-26.053869710250055</v>
+        <v>-12.821382737361004</v>
       </c>
       <c r="B31">
-        <v>-23.760185603095497</v>
+        <v>-8.2502489808532697</v>
       </c>
       <c r="C31">
-        <v>-23.076669818268876</v>
+        <v>-7.2417676856348727</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-26.81298468515763</v>
+        <v>-12.798474820591501</v>
       </c>
       <c r="B32">
-        <v>-23.729930024080346</v>
+        <v>-7.9137747200835733</v>
       </c>
       <c r="C32">
-        <v>-22.775678417213619</v>
+        <v>-6.0850583246356891</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-27.758219577820888</v>
+        <v>-12.759218169587715</v>
       </c>
       <c r="B33">
-        <v>-23.67655882804825</v>
+        <v>-7.6642624095012799</v>
       </c>
       <c r="C33">
-        <v>-22.666819901791911</v>
+        <v>-5.2421966171039767</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-28.940402106449639</v>
+        <v>-12.709678172150319</v>
       </c>
       <c r="B34">
-        <v>-23.628806524483814</v>
+        <v>-7.5189395328238886</v>
       </c>
       <c r="C34">
-        <v>-22.753524408694396</v>
+        <v>-4.6807430459976711</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-30.439424642051236</v>
+        <v>-12.657406460145102</v>
       </c>
       <c r="B35">
-        <v>-23.617912905670892</v>
+        <v>-7.4934069547584015</v>
       </c>
       <c r="C35">
-        <v>-23.031947875152106</v>
+        <v>-4.386188774926608</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-32.393093850015958</v>
+        <v>-12.610862118134214</v>
       </c>
       <c r="B36">
-        <v>-23.675007983052133</v>
+        <v>-7.6017837322530344</v>
       </c>
       <c r="C36">
-        <v>-23.48107692649485</v>
+        <v>-4.3570182362955556</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-35.073681246129105</v>
+        <v>-12.578734307433859</v>
       </c>
       <c r="B37">
-        <v>-23.829965207515201</v>
+        <v>-7.8559706657395934</v>
       </c>
       <c r="C37">
-        <v>-24.044767606282804</v>
+        <v>-4.6024994488125905</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-39.156017472105617</v>
+        <v>-12.56930828613427</v>
       </c>
       <c r="B38">
-        <v>-24.111571312183315</v>
+        <v>-8.2629969747603127</v>
       </c>
       <c r="C38">
-        <v>-24.608197726070653</v>
+        <v>-5.1415643841077294</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-47.412889666464849</v>
+        <v>-12.589853174940204</v>
       </c>
       <c r="B39">
-        <v>-24.548667247254613</v>
+        <v>-8.8182978925440914</v>
       </c>
       <c r="C39">
-        <v>-24.994298032728679</v>
+        <v>-6.0005432494204047</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-51.838607051948102</v>
+        <v>-12.6460791536553</v>
       </c>
       <c r="B40">
-        <v>-25.172027587777826</v>
+        <v>-9.4909251727681188</v>
       </c>
       <c r="C40">
-        <v>-25.034758580746065</v>
+        <v>-7.2032067884837705</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-40.588901538961153</v>
+        <v>-12.741586093431573</v>
       </c>
       <c r="B41">
-        <v>-26.01700658707912</v>
+        <v>-10.196175309154716</v>
       </c>
       <c r="C41">
-        <v>-24.704114095876836</v>
+        <v>-8.7305158675487675</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-35.911577213445355</v>
+        <v>-12.877316165727599</v>
       </c>
       <c r="B42">
-        <v>-27.127347184788476</v>
+        <v>-10.763345721955178</v>
       </c>
       <c r="C42">
-        <v>-24.156181800600528</v>
+        <v>-10.383905684696693</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-32.963708998423996</v>
+        <v>-13.050968616760253</v>
       </c>
       <c r="B43">
-        <v>-28.561147350115203</v>
+        <v>-10.952600118617115</v>
       </c>
       <c r="C43">
-        <v>-23.608754390226501</v>
+        <v>-11.513191776963797</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-30.846447868188648</v>
+        <v>-13.256470554606894</v>
       </c>
       <c r="B44">
-        <v>-30.401238664566588</v>
+        <v>-10.598780498311024</v>
       </c>
       <c r="C44">
-        <v>-23.238667597743135</v>
+        <v>-11.276201907741255</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-29.225545696403167</v>
+        <v>-13.483674915255179</v>
       </c>
       <c r="B45">
-        <v>-32.77545663337883</v>
+        <v>-9.7712481930114556</v>
       </c>
       <c r="C45">
-        <v>-23.164894504790439</v>
+        <v>-9.9099544894206453</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-27.938801963140602</v>
+        <v>-13.718634597686341</v>
       </c>
       <c r="B46">
-        <v>-35.902102448225783</v>
+        <v>-8.7063954721339538</v>
       </c>
       <c r="C46">
-        <v>-23.473255302300039</v>
+        <v>-8.3167924504208095</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-26.894995274784833</v>
+        <v>-13.944906213463739</v>
       </c>
       <c r="B47">
-        <v>-40.212809752819979</v>
+        <v>-7.6237631219740525</v>
       </c>
       <c r="C47">
-        <v>-24.242683573388248</v>
+        <v>-6.9676912250369991</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-26.038084383234768</v>
+        <v>-14.146243820562351</v>
       </c>
       <c r="B48">
-        <v>-46.786913987696408</v>
+        <v>-6.6533411876630622</v>
       </c>
       <c r="C48">
-        <v>-25.560159866618491</v>
+        <v>-5.9769905677141129</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-25.331950477943881</v>
+        <v>-14.310508590214003</v>
       </c>
       <c r="B49">
-        <v>-58.017188396913198</v>
+        <v>-5.8553018045464107</v>
       </c>
       <c r="C49">
-        <v>-27.499374722445168</v>
+        <v>-5.3435483886060577</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-24.752995003582111</v>
+        <v>-14.433797723363584</v>
       </c>
       <c r="B50">
-        <v>-53.989341190663119</v>
+        <v>-5.2527244960897379</v>
       </c>
       <c r="C50">
-        <v>-29.915203102461703</v>
+        <v>-5.0425447058965727</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-24.286094903084496</v>
+        <v>-14.523180066830895</v>
       </c>
       <c r="B51">
-        <v>-52.753915367007906</v>
+        <v>-4.8522759357025134</v>
       </c>
       <c r="C51">
-        <v>-31.644710308658361</v>
+        <v>-5.0499037890391927</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>-23.92204625942286</v>
+        <v>-14.596796782325097</v>
       </c>
       <c r="B52">
-        <v>-61.51557204047117</v>
+        <v>-4.6544889795559286</v>
       </c>
       <c r="C52">
-        <v>-30.959958151178206</v>
+        <v>-5.3459452516297814</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>-23.655632249410317</v>
+        <v>-14.681420124546765</v>
       </c>
       <c r="B53">
-        <v>-52.451840392859459</v>
+        <v>-4.6584362629760436</v>
       </c>
       <c r="C53">
-        <v>-29.123655043472585</v>
+        <v>-5.9096329377434564</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>-23.48389139099946</v>
+        <v>-14.808849734920395</v>
       </c>
       <c r="B54">
-        <v>-42.862072235427952</v>
+        <v>-4.8638023638489116</v>
       </c>
       <c r="C54">
-        <v>-27.743846527895304</v>
+        <v>-6.6986249403381226</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>-23.40435096795218</v>
+        <v>-15.012800554258806</v>
       </c>
       <c r="B55">
-        <v>-37.511016245137213</v>
+        <v>-5.2718481272218529</v>
       </c>
       <c r="C55">
-        <v>-27.219426795512248</v>
+        <v>-7.5967100303255375</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>-23.413113388548958</v>
+        <v>-15.327300610727455</v>
       </c>
       <c r="B56">
-        <v>-33.775898153014332</v>
+        <v>-5.8859333194916186</v>
       </c>
       <c r="C56">
-        <v>-27.658063731500661</v>
+        <v>-8.3154886736080691</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-23.502792813164856</v>
+        <v>-15.786861031664806</v>
       </c>
       <c r="B57">
-        <v>-30.920392786271499</v>
+        <v>-6.7117358457305185</v>
       </c>
       <c r="C57">
-        <v>-29.273482241349416</v>
+        <v>-8.3780336783516596</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-23.660541765600065</v>
+        <v>-16.428333724149272</v>
       </c>
       <c r="B58">
-        <v>-28.592576781454323</v>
+        <v>-7.7565651262456576</v>
       </c>
       <c r="C58">
-        <v>-32.710277878170679</v>
+        <v>-7.5090390017598141</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-23.866912018403905</v>
+        <v>-17.294582773972287</v>
       </c>
       <c r="B59">
-        <v>-26.571895516424391</v>
+        <v>-9.0252074978152095</v>
       </c>
       <c r="C59">
-        <v>-40.79802095300284</v>
+        <v>-6.0135493137521134</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-24.096991258883776</v>
+        <v>-18.440867652619851</v>
       </c>
       <c r="B60">
-        <v>-24.706001305542415</v>
+        <v>-10.503894500437278</v>
       </c>
       <c r="C60">
-        <v>-44.861948378638502</v>
+        <v>-4.3872827186525809</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-24.325743508875398</v>
+        <v>-19.946593469288207</v>
       </c>
       <c r="B61">
-        <v>-22.901890438090287</v>
+        <v>-12.108745358187285</v>
       </c>
       <c r="C61">
-        <v>-34.371027618589821</v>
+        <v>-2.9307184239221504</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-24.538414523109683</v>
+        <v>-21.939807968927557</v>
       </c>
       <c r="B62">
-        <v>-21.127222083636571</v>
+        <v>-13.559573022032453</v>
       </c>
       <c r="C62">
-        <v>-30.741589569127115</v>
+        <v>-1.7686201146292404</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-24.743633957118657</v>
+        <v>-24.657506571515295</v>
       </c>
       <c r="B63">
-        <v>-19.399056929840114</v>
+        <v>-14.273797783042664</v>
       </c>
       <c r="C63">
-        <v>-29.291974337985266</v>
+        <v>-0.94919055461383472</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-24.983813150708556</v>
+        <v>-28.631619461850185</v>
       </c>
       <c r="B64">
-        <v>-17.759987569572584</v>
+        <v>-13.801381947594136</v>
       </c>
       <c r="C64">
-        <v>-28.869282190593726</v>
+        <v>-0.49839529191163279</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-25.339688843416095</v>
+        <v>-35.473851853464559</v>
       </c>
       <c r="B65">
-        <v>-16.255735790883556</v>
+        <v>-12.482501286619224</v>
       </c>
       <c r="C65">
-        <v>-28.064615320146071</v>
+        <v>-0.44320741678734643</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>-25.934001635430747</v>
+        <v>-41.672013839206002</v>
       </c>
       <c r="B66">
-        <v>-14.923298112433978</v>
+        <v>-10.950328248797598</v>
       </c>
       <c r="C66">
-        <v>-25.623047113537801</v>
+        <v>-0.82328089647098646</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>-26.948750460528828</v>
+        <v>-32.778024392810813</v>
       </c>
       <c r="B67">
-        <v>-13.788435321455809</v>
+        <v>-9.555573316044363</v>
       </c>
       <c r="C67">
-        <v>-22.442269105331949</v>
+        <v>-1.700208969275006</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-28.682298191900792</v>
+        <v>-28.491524569232073</v>
       </c>
       <c r="B68">
-        <v>-12.86754859202069</v>
+        <v>-8.4167558932972337</v>
       </c>
       <c r="C68">
-        <v>-19.63407711159855</v>
+        <v>-3.1658704716570791</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-31.680174396017627</v>
+        <v>-26.023097894256097</v>
       </c>
       <c r="B69">
-        <v>-12.170251023230731</v>
+        <v>-7.5605838820276858</v>
       </c>
       <c r="C69">
-        <v>-17.48857529897095</v>
+        <v>-5.3292820254503663</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-35.996122239906192</v>
+        <v>-24.417663827545063</v>
       </c>
       <c r="B70">
-        <v>-11.700839940328525</v>
+        <v>-6.9848662279321392</v>
       </c>
       <c r="C70">
-        <v>-16.00020818836181</v>
+        <v>-8.1169930795878269</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-33.078846489846285</v>
+        <v>-23.26497659598931</v>
       </c>
       <c r="B71">
-        <v>-11.457762344971201</v>
+        <v>-6.6774221176157162</v>
       </c>
       <c r="C71">
-        <v>-15.113928197609551</v>
+        <v>-10.188068642251796</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-27.010722090234754</v>
+        <v>-22.323248896249002</v>
       </c>
       <c r="B72">
-        <v>-11.430124245304922</v>
+        <v>-6.6177790412550905</v>
       </c>
       <c r="C72">
-        <v>-14.765465407905909</v>
+        <v>-9.1703005731453544</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-22.613104781057292</v>
+        <v>-21.435744047778414</v>
       </c>
       <c r="B73">
-        <v>-11.589862052577525</v>
+        <v>-6.7708956024234581</v>
       </c>
       <c r="C73">
-        <v>-14.851504028595057</v>
+        <v>-6.8539260797398169</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-19.289432621277221</v>
+        <v>-20.52265811651397</v>
       </c>
       <c r="B74">
-        <v>-11.8786813223414</v>
+        <v>-7.0760011356597854</v>
       </c>
       <c r="C74">
-        <v>-15.151097186312521</v>
+        <v>-5.0826003970411504</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-16.63443932583629</v>
+        <v>-19.57897886283795</v>
       </c>
       <c r="B75">
-        <v>-12.194046552569645</v>
+        <v>-7.4363043786467875</v>
       </c>
       <c r="C75">
-        <v>-15.256742622475564</v>
+        <v>-4.0878803401410417</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-14.441233086149323</v>
+        <v>-18.65085831928813</v>
       </c>
       <c r="B76">
-        <v>-12.393525012700612</v>
+        <v>-7.72626962290032</v>
       </c>
       <c r="C76">
-        <v>-14.774992241558188</v>
+        <v>-3.7877189015112855</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-12.594361102899436</v>
+        <v>-17.801199963527388</v>
       </c>
       <c r="B77">
-        <v>-12.348274797258687</v>
+        <v>-7.8382041335391097</v>
       </c>
       <c r="C77">
-        <v>-13.781181261158489</v>
+        <v>-4.0912143095317663</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-11.023429500726412</v>
+        <v>-17.08553039795817</v>
       </c>
       <c r="B78">
-        <v>-12.031136178285468</v>
+        <v>-7.7520616831403917</v>
       </c>
       <c r="C78">
-        <v>-12.731785902000304</v>
+        <v>-4.9058780017220416</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-9.6823954807758259</v>
+        <v>-16.543838903174382</v>
       </c>
       <c r="B79">
-        <v>-11.544788375535106</v>
+        <v>-7.5570258707973617</v>
       </c>
       <c r="C79">
-        <v>-12.015521915179196</v>
+        <v>-6.0812514718602273</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-8.5394500769757169</v>
+        <v>-16.201688382352305</v>
       </c>
       <c r="B80">
-        <v>-11.052756948653935</v>
+        <v>-7.3982574130822876</v>
       </c>
       <c r="C80">
-        <v>-11.848744697174922</v>
+        <v>-7.327739721134483</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-7.5716493933302962</v>
+        <v>-16.0735312990065</v>
       </c>
       <c r="B81">
-        <v>-10.702539099519864</v>
+        <v>-7.4141081885103768</v>
       </c>
       <c r="C81">
-        <v>-12.360623729760709</v>
+        <v>-8.2425557947211718</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-6.7618593029417493</v>
+        <v>-16.164183136678442</v>
       </c>
       <c r="B82">
-        <v>-10.602385124087499</v>
+        <v>-7.7134143914020559</v>
       </c>
       <c r="C82">
-        <v>-13.616631109057236</v>
+        <v>-8.6371170839754683</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-6.0969169213394672</v>
+        <v>-16.466118784250241</v>
       </c>
       <c r="B83">
-        <v>-10.834820958784469</v>
+        <v>-8.3837728241366598</v>
       </c>
       <c r="C83">
-        <v>-15.321966661196525</v>
+        <v>-8.7609222538212279</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-5.5664673741458826</v>
+        <v>-16.9499001450238</v>
       </c>
       <c r="B84">
-        <v>-11.480976031031025</v>
+        <v>-9.509281882520991</v>
       </c>
       <c r="C84">
-        <v>-15.783097678072783</v>
+        <v>-8.9582227318655701</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-5.1621919861761576</v>
+        <v>-17.544773985859763</v>
       </c>
       <c r="B85">
-        <v>-12.65086799103605</v>
+        <v>-11.186532690901668</v>
       </c>
       <c r="C85">
-        <v>-13.599735445649932</v>
+        <v>-9.3098755977420957</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-4.8772839324170949</v>
+        <v>-18.113265668242985</v>
       </c>
       <c r="B86">
-        <v>-14.535872081006717</v>
+        <v>-13.523412477198093</v>
       </c>
       <c r="C86">
-        <v>-10.771940076026887</v>
+        <v>-9.5431373636565038</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-4.7060689944191498</v>
+        <v>-18.451779986598908</v>
       </c>
       <c r="B87">
-        <v>-17.547792348126794</v>
+        <v>-16.527445071455883</v>
       </c>
       <c r="C87">
-        <v>-8.534789709720334</v>
+        <v>-9.228665223512218</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>-4.6437280078434924</v>
+        <v>-18.378748513501176</v>
       </c>
       <c r="B88">
-        <v>-22.885897712315419</v>
+        <v>-19.45083166541577</v>
       </c>
       <c r="C88">
-        <v>-7.0226043701150109</v>
+        <v>-8.3308944432632348</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>-4.6860812311077868</v>
+        <v>-17.878752729945383</v>
       </c>
       <c r="B89">
-        <v>-35.278067441622753</v>
+        <v>-20.161092036889659</v>
       </c>
       <c r="C89">
-        <v>-6.1739829504398802</v>
+        <v>-7.2948483436080043</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>-4.8294146641696063</v>
+        <v>-17.114836292881293</v>
       </c>
       <c r="B90">
-        <v>-24.360061914460811</v>
+        <v>-19.10903800504645</v>
       </c>
       <c r="C90">
-        <v>-5.9383179784698381</v>
+        <v>-6.5452942656677271</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>-5.0703328828316421</v>
+        <v>-16.289609329236647</v>
       </c>
       <c r="B91">
         <v>-18.538295138460917</v>
@@ -1394,992 +1348,992 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>-5.4045870132734155</v>
+        <v>-15.542061699177065</v>
       </c>
       <c r="B92">
-        <v>-15.420188081846032</v>
+        <v>-19.350173440892164</v>
       </c>
       <c r="C92">
-        <v>-7.2835492940275692</v>
+        <v>-6.6634868848731905</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>-5.8289789552670452</v>
+        <v>-14.942937733139454</v>
       </c>
       <c r="B93">
-        <v>-13.494260591320316</v>
+        <v>-22.469150226556572</v>
       </c>
       <c r="C93">
-        <v>-8.9199320690419341</v>
+        <v>-7.7066086894398556</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-6.3412771956286162</v>
+        <v>-14.520605357229028</v>
       </c>
       <c r="B94">
-        <v>-12.254992127900859</v>
+        <v>-32.315136805540725</v>
       </c>
       <c r="C94">
-        <v>-11.14361889351429</v>
+        <v>-9.5187273280601978</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-6.9381784204864392</v>
+        <v>-14.276795291948549</v>
       </c>
       <c r="B95">
-        <v>-11.447815264880315</v>
+        <v>-24.929439577866255</v>
       </c>
       <c r="C95">
-        <v>-13.274681333956561</v>
+        <v>-12.197317398315608</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-7.6160938947560588</v>
+        <v>-14.200897624591942</v>
       </c>
       <c r="B96">
-        <v>-10.902290454928718</v>
+        <v>-16.961720016856184</v>
       </c>
       <c r="C96">
-        <v>-13.577587009937846</v>
+        <v>-15.736956182663871</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-8.3709772432351937</v>
+        <v>-14.275768051995117</v>
       </c>
       <c r="B97">
-        <v>-10.484651633111834</v>
+        <v>-12.602395385077205</v>
       </c>
       <c r="C97">
-        <v>-12.060580392751877</v>
+        <v>-19.539995469343108</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-9.1981044446148186</v>
+        <v>-14.480901586736287</v>
       </c>
       <c r="B98">
-        <v>-10.094329738091405</v>
+        <v>-9.7307661817523918</v>
       </c>
       <c r="C98">
-        <v>-10.4586256417039</v>
+        <v>-22.127693588123122</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>-10.091779910057523</v>
+        <v>-14.795165512343708</v>
       </c>
       <c r="B99">
-        <v>-9.6782589273013855</v>
+        <v>-7.7366443434698269</v>
       </c>
       <c r="C99">
-        <v>-9.4451399627443582</v>
+        <v>-22.461456160977392</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>-11.044964260023011</v>
+        <v>-15.200358805485791</v>
       </c>
       <c r="B100">
-        <v>-9.2385493548335731</v>
+        <v>-6.3560814512212973</v>
       </c>
       <c r="C100">
-        <v>-9.079978064543667</v>
+        <v>-18.609966870490759</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>-12.048833311842408</v>
+        <v>-15.685940549140156</v>
       </c>
       <c r="B101">
-        <v>-8.8190066339317781</v>
+        <v>-5.4468196119432584</v>
       </c>
       <c r="C101">
-        <v>-9.310557710867398</v>
+        <v>-13.320735703586841</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>-13.09235661008459</v>
+        <v>-16.254244211632589</v>
       </c>
       <c r="B102">
-        <v>-8.4791392815767388</v>
+        <v>-4.9179432222745003</v>
       </c>
       <c r="C102">
-        <v>-10.071302993214516</v>
+        <v>-9.0213391578193445</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>-14.162111103419345</v>
+        <v>-16.924872631929237</v>
       </c>
       <c r="B103">
-        <v>-8.2733629745047246</v>
+        <v>-4.6995956538590269</v>
       </c>
       <c r="C103">
-        <v>-11.266663455861977</v>
+        <v>-5.7953916027820407</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-15.242734799814217</v>
+        <v>-17.737533717353536</v>
       </c>
       <c r="B104">
-        <v>-8.2423929711816317</v>
+        <v>-4.7255267221672987</v>
       </c>
       <c r="C104">
-        <v>-12.701522391184081</v>
+        <v>-3.430129785871836</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-16.318580463457621</v>
+        <v>-18.754226815356994</v>
       </c>
       <c r="B105">
-        <v>-8.4130821857070011</v>
+        <v>-4.9208090621545324</v>
       </c>
       <c r="C105">
-        <v>-14.005739720431016</v>
+        <v>-1.7637708985123435</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-17.377058648903272</v>
+        <v>-20.063593344010648</v>
       </c>
       <c r="B106">
-        <v>-8.8010098392357943</v>
+        <v>-5.1952301967180787</v>
       </c>
       <c r="C106">
-        <v>-14.77223671930135</v>
+        <v>-0.69353886235928908</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>-18.413618444065481</v>
+        <v>-21.790450611618787</v>
       </c>
       <c r="B107">
-        <v>-9.4122402114280828</v>
+        <v>-5.4489452199766149</v>
       </c>
       <c r="C107">
-        <v>-14.989728143153593</v>
+        <v>-0.15849393751809518</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>-19.437370889926683</v>
+        <v>-24.103526324717809</v>
       </c>
       <c r="B108">
-        <v>-10.242400362179428</v>
+        <v>-5.5967529073918554</v>
       </c>
       <c r="C108">
-        <v>-15.06880813412482</v>
+        <v>-0.1271474783584236</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>-20.475786833096826</v>
+        <v>-27.112905354172248</v>
       </c>
       <c r="B109">
-        <v>-11.271738242146991</v>
+        <v>-5.6014578756465871</v>
       </c>
       <c r="C109">
-        <v>-15.411270291137711</v>
+        <v>-0.58884970432740846</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-21.577667467779165</v>
+        <v>-29.823259646054197</v>
       </c>
       <c r="B110">
-        <v>-12.455181633333989</v>
+        <v>-5.4875825974110102</v>
       </c>
       <c r="C110">
-        <v>-16.248442246228468</v>
+        <v>-1.5425893489884455</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>-22.815899425678651</v>
+        <v>-28.806031298552458</v>
       </c>
       <c r="B111">
-        <v>-13.709448935551055</v>
+        <v>-5.3203503245119501</v>
       </c>
       <c r="C111">
-        <v>-17.712506773883813</v>
+        <v>-2.9657018720962154</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>-24.294582980277287</v>
+        <v>-25.621808292621026</v>
       </c>
       <c r="B112">
-        <v>-14.909739351825934</v>
+        <v>-5.1707136922660624</v>
       </c>
       <c r="C112">
-        <v>-19.897101828985896</v>
+        <v>-4.7104727194697151</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>-26.169586741158458</v>
+        <v>-22.922255734030919</v>
       </c>
       <c r="B113">
-        <v>-15.922636890295072</v>
+        <v>-5.0930056704624462</v>
       </c>
       <c r="C113">
-        <v>-22.780431151276311</v>
+        <v>-6.2554636860821322</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>-28.702091897847723</v>
+        <v>-20.952302134816954</v>
       </c>
       <c r="B114">
-        <v>-16.682426266919531</v>
+        <v>-5.1203426806804213</v>
       </c>
       <c r="C114">
-        <v>-25.655523496227033</v>
+        <v>-6.7060728738345716</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>-32.38121314011687</v>
+        <v>-19.564824285926004</v>
       </c>
       <c r="B115">
-        <v>-17.245170953491279</v>
+        <v>-5.2697623486132734</v>
       </c>
       <c r="C115">
-        <v>-26.534947787472568</v>
+        <v>-5.9415667518738324</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-37.608037244296966</v>
+        <v>-18.63880128887654</v>
       </c>
       <c r="B116">
-        <v>-17.752588920385143</v>
+        <v>-5.5498690787862319</v>
       </c>
       <c r="C116">
-        <v>-25.574850392554826</v>
+        <v>-4.8156734630130158</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>-37.13882697285905</v>
+        <v>-18.098744581132614</v>
       </c>
       <c r="B117">
-        <v>-18.354036566476825</v>
+        <v>-5.9677633360475246</v>
       </c>
       <c r="C117">
-        <v>-24.791029238333032</v>
+        <v>-3.9238901844343315</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>-31.75187790780544</v>
+        <v>-17.901041698771035</v>
       </c>
       <c r="B118">
-        <v>-19.16498459266824</v>
+        <v>-6.5341752569709142</v>
       </c>
       <c r="C118">
-        <v>-24.896259356207437</v>
+        <v>-3.4395943519366599</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-27.989289990169016</v>
+        <v>-18.023853703721276</v>
       </c>
       <c r="B119">
-        <v>-20.268021512388184</v>
+        <v>-7.266111396366882</v>
       </c>
       <c r="C119">
-        <v>-26.057253047492622</v>
+        <v>-3.3764233105220791</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>-25.374324624217927</v>
+        <v>-18.461355474719376</v>
       </c>
       <c r="B120">
-        <v>-21.729974238853622</v>
+        <v>-8.1855836162733677</v>
       </c>
       <c r="C120">
-        <v>-28.528003449589644</v>
+        <v>-3.7128183778163217</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-23.460753934222062</v>
+        <v>-19.219947223707972</v>
       </c>
       <c r="B121">
-        <v>-23.620864860463545</v>
+        <v>-9.3102565956924099</v>
       </c>
       <c r="C121">
-        <v>-33.132390744061325</v>
+        <v>-4.4310796621385791</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>-22.023387712027596</v>
+        <v>-20.312629937294886</v>
       </c>
       <c r="B122">
-        <v>-26.034589759834404</v>
+        <v>-10.623680189552672</v>
       </c>
       <c r="C122">
-        <v>-44.517533925471142</v>
+        <v>-5.5325505623321911</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-20.939680569344532</v>
+        <v>-21.741544988598488</v>
       </c>
       <c r="B123">
-        <v>-29.120390808426805</v>
+        <v>-11.996261871097751</v>
       </c>
       <c r="C123">
-        <v>-41.293145698871143</v>
+        <v>-7.051570048801084</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>-20.137030327920485</v>
+        <v>-23.43740026316258</v>
       </c>
       <c r="B124">
-        <v>-33.151344387516815</v>
+        <v>-13.04802870725721</v>
       </c>
       <c r="C124">
-        <v>-34.020622645014086</v>
+        <v>-9.0778690801284103</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>-19.569576837087961</v>
+        <v>-25.08648245354015</v>
       </c>
       <c r="B125">
-        <v>-38.730444160178017</v>
+        <v>-13.209009841312575</v>
       </c>
       <c r="C125">
-        <v>-31.388695313208913</v>
+        <v>-11.789993863475768</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-19.207088858357984</v>
+        <v>-25.93560227533137</v>
       </c>
       <c r="B126">
-        <v>-47.78581466918935</v>
+        <v>-12.352428928195705</v>
       </c>
       <c r="C126">
-        <v>-30.524140752838068</v>
+        <v>-15.414237603538762</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-19.029204050936208</v>
+        <v>-25.409187009147981</v>
       </c>
       <c r="B127">
-        <v>-62.191726059694545</v>
+        <v>-10.998772983811197</v>
       </c>
       <c r="C127">
-        <v>-30.548868064126438</v>
+        <v>-18.952358545899052</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>-19.02228920305641</v>
+        <v>-24.033742223181282</v>
       </c>
       <c r="B128">
-        <v>-52.746832364463884</v>
+        <v>-9.6470386961438432</v>
       </c>
       <c r="C128">
-        <v>-30.555496857446474</v>
+        <v>-17.558622664644105</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-19.177686214118896</v>
+        <v>-22.567598596362576</v>
       </c>
       <c r="B129">
-        <v>-55.907481868860771</v>
+        <v>-8.5164061530884734</v>
       </c>
       <c r="C129">
-        <v>-29.527895092373448</v>
+        <v>-13.95944061966922</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>-19.490779304731291</v>
+        <v>-21.329593957910088</v>
       </c>
       <c r="B130">
-        <v>-60.018064188836377</v>
+        <v>-7.6674159161357842</v>
       </c>
       <c r="C130">
-        <v>-27.544704938972117</v>
+        <v>-11.250345959877873</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>-19.960610594181169</v>
+        <v>-20.379863110599587</v>
       </c>
       <c r="B131">
-        <v>-46.155818395282118</v>
+        <v>-7.1048408553520934</v>
       </c>
       <c r="C131">
-        <v>-25.46137885122053</v>
+        <v>-9.4329160017403062</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-20.589948333511231</v>
+        <v>-19.69740699582923</v>
       </c>
       <c r="B132">
-        <v>-40.357078705944112</v>
+        <v>-6.8196244396977148</v>
       </c>
       <c r="C132">
-        <v>-23.739879291249501</v>
+        <v>-8.2980647058114236</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-21.385829061701315</v>
+        <v>-19.241471387922061</v>
       </c>
       <c r="B133">
-        <v>-36.765952120924169</v>
+        <v>-6.8030665165702882</v>
       </c>
       <c r="C133">
-        <v>-22.478002943656765</v>
+        <v>-7.7262439699916712</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-22.360726848558137</v>
+        <v>-18.966517084765364</v>
       </c>
       <c r="B134">
-        <v>-34.300345279783279</v>
+        <v>-7.0512996997290642</v>
       </c>
       <c r="C134">
-        <v>-21.655839100214575</v>
+        <v>-7.6678328742337429</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>-23.534712754661999</v>
+        <v>-18.823484362213506</v>
       </c>
       <c r="B135">
-        <v>-32.520349266717481</v>
+        <v>-7.5664981793750439</v>
       </c>
       <c r="C135">
-        <v>-21.230901181748727</v>
+        <v>-8.1257376056343951</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-24.939403549109649</v>
+        <v>-18.758150923616462</v>
       </c>
       <c r="B136">
-        <v>-31.176277357648075</v>
+        <v>-8.3564262882019396</v>
       </c>
       <c r="C136">
-        <v>-21.161598858297175</v>
+        <v>-9.1556760262198686</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>-26.625470186313109</v>
+        <v>-18.711221870009499</v>
       </c>
       <c r="B137">
-        <v>-30.092406723743316</v>
+        <v>-9.4310594606432581</v>
       </c>
       <c r="C137">
-        <v>-21.408493773592305</v>
+        <v>-10.88343639568194</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-28.678126106883688</v>
+        <v>-18.623391867134448</v>
       </c>
       <c r="B138">
-        <v>-29.132570992718026</v>
+        <v>-10.790240839160582</v>
       </c>
       <c r="C138">
-        <v>-21.927173759695762</v>
+        <v>-13.519742548653708</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>-31.253194963892383</v>
+        <v>-18.446250270403095</v>
       </c>
       <c r="B139">
-        <v>-28.198234610995797</v>
+        <v>-12.38404679264772</v>
       </c>
       <c r="C139">
-        <v>-22.654758192768174</v>
+        <v>-17.031518435342623</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>-34.678421925020629</v>
+        <v>-18.154946563647322</v>
       </c>
       <c r="B140">
-        <v>-27.237268143643618</v>
+        <v>-14.006252262299846</v>
       </c>
       <c r="C140">
-        <v>-23.490789357026593</v>
+        <v>-18.319724832794197</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>-39.846214424278877</v>
+        <v>-17.754322289570592</v>
       </c>
       <c r="B141">
-        <v>-26.244803915963757</v>
+        <v>-15.140495325178474</v>
       </c>
       <c r="C141">
-        <v>-24.283266950330287</v>
+        <v>-14.926561514333383</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>-51.593232882871391</v>
+        <v>-17.273467480575896</v>
       </c>
       <c r="B142">
-        <v>-25.248706517968287</v>
+        <v>-15.188426509954468</v>
       </c>
       <c r="C142">
-        <v>-24.853264852918656</v>
+        <v>-11.521287757891798</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>-47.665645012532906</v>
+        <v>-16.752669352626334</v>
       </c>
       <c r="B143">
-        <v>-24.288305950314605</v>
+        <v>-14.253190525416858</v>
       </c>
       <c r="C143">
-        <v>-25.085083500815031</v>
+        <v>-9.0700857367030512</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>-39.901932582421928</v>
+        <v>-16.231060610651177</v>
       </c>
       <c r="B144">
-        <v>-23.398580172400273</v>
+        <v>-12.970369881706986</v>
       </c>
       <c r="C144">
-        <v>-25.011276382779421</v>
+        <v>-7.3493418505475709</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>-36.302232770685904</v>
+        <v>-15.739795874360423</v>
       </c>
       <c r="B145">
-        <v>-22.6037102867759</v>
+        <v>-11.764532221237559</v>
       </c>
       <c r="C145">
-        <v>-24.779295931845581</v>
+        <v>-6.1629694820116923</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>-34.088421046674597</v>
+        <v>-15.300488141125657</v>
       </c>
       <c r="B146">
-        <v>-21.917076555068569</v>
+        <v>-10.778431802740771</v>
       </c>
       <c r="C146">
-        <v>-24.546971364154885</v>
+        <v>-5.3899842647271798</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-32.580549628850754</v>
+        <v>-14.926466971610989</v>
       </c>
       <c r="B147">
-        <v>-21.343769465751372</v>
+        <v>-10.031914811996748</v>
       </c>
       <c r="C147">
-        <v>-24.423889455167476</v>
+        <v>-4.9562810812186537</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>-31.501482455826601</v>
+        <v>-14.624901829145973</v>
       </c>
       <c r="B148">
-        <v>-20.883318492250105</v>
+        <v>-9.5077001385998088</v>
       </c>
       <c r="C148">
-        <v>-24.470886550732935</v>
+        <v>-4.8159920533948606</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>-30.708874657232549</v>
+        <v>-14.398759663233902</v>
       </c>
       <c r="B149">
-        <v>-20.531819133380761</v>
+        <v>-9.1810828867127707</v>
       </c>
       <c r="C149">
-        <v>-24.718370619696973</v>
+        <v>-4.9415814308758854</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>-30.118729429849829</v>
+        <v>-14.248307075540559</v>
       </c>
       <c r="B150">
-        <v>-20.283366529999359</v>
+        <v>-9.0285473709025208</v>
       </c>
       <c r="C150">
-        <v>-25.182131677812549</v>
+        <v>-5.3189138043304576</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>-29.676693490731992</v>
+        <v>-14.172138529561778</v>
       </c>
       <c r="B151">
-        <v>-20.130940601848518</v>
+        <v>-9.0296074435919618</v>
       </c>
       <c r="C151">
-        <v>-25.873206031388406</v>
+        <v>-5.9453255588480669</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>-29.345321672013323</v>
+        <v>-14.167835410416776</v>
       </c>
       <c r="B152">
-        <v>-20.066913041771024</v>
+        <v>-9.1666135671507547</v>
       </c>
       <c r="C152">
-        <v>-26.803541567160497</v>
+        <v>-6.830006846373248</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>-29.097753325511249</v>
+        <v>-14.232370374044542</v>
       </c>
       <c r="B153">
-        <v>-20.083311021234124</v>
+        <v>-9.4240099256172432</v>
       </c>
       <c r="C153">
-        <v>-27.98909118628881</v>
+        <v>-7.996981542520146</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>-28.914274966361905</v>
+        <v>-14.362311043301654</v>
       </c>
       <c r="B154">
-        <v>-20.171931553928676</v>
+        <v>-9.7874793166346414</v>
       </c>
       <c r="C154">
-        <v>-29.450287280844822</v>
+        <v>-9.4922980182129901</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>-28.780301222438229</v>
+        <v>-14.553910381616763</v>
       </c>
       <c r="B155">
-        <v>-20.324369805406629</v>
+        <v>-10.243083939905016</v>
       </c>
       <c r="C155">
-        <v>-31.205910065266949</v>
+        <v>-11.400038066725804</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>-28.685073473832947</v>
+        <v>-14.803073935850787</v>
       </c>
       <c r="B156">
-        <v>-20.532004583361619</v>
+        <v>-10.776420585956954</v>
       </c>
       <c r="C156">
-        <v>-33.244242500281487</v>
+        <v>-13.880880840188858</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>-28.620743584708741</v>
+        <v>-15.105266956754376</v>
       </c>
       <c r="B157">
-        <v>-20.785973327608698</v>
+        <v>-11.371808164138898</v>
       </c>
       <c r="C157">
-        <v>-35.421081837849862</v>
+        <v>-17.283214540621987</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>-28.58167016889951</v>
+        <v>-15.45532836737236</v>
       </c>
       <c r="B158">
-        <v>-21.077163884085426</v>
+        <v>-12.011577333969832</v>
       </c>
       <c r="C158">
-        <v>-37.219465481174396</v>
+        <v>-22.59039508547783</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>-28.563853267578295</v>
+        <v>-15.847224694455324</v>
       </c>
       <c r="B159">
-        <v>-21.396247146858212</v>
+        <v>-12.675621947929891</v>
       </c>
       <c r="C159">
-        <v>-37.772982496368932</v>
+        <v>-35.794700915865363</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>-28.564459666981776</v>
+        <v>-16.273724319535845</v>
       </c>
       <c r="B160">
-        <v>-21.733772261311081</v>
+        <v>-13.341479858021446</v>
       </c>
       <c r="C160">
-        <v>-36.98199786076318</v>
+        <v>-28.709124556709785</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>-28.581439061802243</v>
+        <v>-16.726042610595243</v>
       </c>
       <c r="B161">
-        <v>-22.080340261029892</v>
+        <v>-13.985271304093034</v>
       </c>
       <c r="C161">
-        <v>-35.676791048471692</v>
+        <v>-21.595285725288733</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>-28.613213493445315</v>
+        <v>-17.193472486232679</v>
       </c>
       <c r="B162">
-        <v>-22.4268605341789</v>
+        <v>-14.583715690958194</v>
       </c>
       <c r="C162">
-        <v>-34.434788384632853</v>
+        <v>-18.180952303679504</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>-28.658440754829115</v>
+        <v>-17.663124167483566</v>
       </c>
       <c r="B163">
-        <v>-22.764877502823285</v>
+        <v>-15.117059581748746</v>
       </c>
       <c r="C163">
-        <v>-33.423455278992627</v>
+        <v>-16.094095858215663</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>-28.715839593150573</v>
+        <v>-18.11991514026262</v>
       </c>
       <c r="B164">
-        <v>-23.086933347988005</v>
+        <v>-15.572149805191751</v>
       </c>
       <c r="C164">
-        <v>-32.651057674058926</v>
+        <v>-14.713854675386916</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>-28.784076688496803</v>
+        <v>-18.547032864322354</v>
       </c>
       <c r="B165">
-        <v>-23.386913004860688</v>
+        <v>-15.944464163161015</v>
       </c>
       <c r="C165">
-        <v>-32.086383679269119</v>
+        <v>-13.782234630599184</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>-28.861690080573013</v>
+        <v>-18.927052276948441</v>
       </c>
       <c r="B166">
-        <v>-23.660308945991709</v>
+        <v>-16.238146734192664</v>
       </c>
       <c r="C166">
-        <v>-31.693932647465367</v>
+        <v>-13.166196295222392</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>-28.947059903735443</v>
+        <v>-19.243793592784218</v>
       </c>
       <c r="B167">
-        <v>-23.904350579535386</v>
+        <v>-16.464001754498835</v>
       </c>
       <c r="C167">
-        <v>-31.442186286511031</v>
+        <v>-12.787559785888147</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>-29.038397055429428</v>
+        <v>-19.484632219615076</v>
       </c>
       <c r="B168">
-        <v>-24.117969192349705</v>
+        <v>-16.636341275884625</v>
       </c>
       <c r="C168">
-        <v>-31.304580706114304</v>
+        <v>-12.596071561745262</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>-29.133758704015037</v>
+        <v>-19.6426752826331</v>
       </c>
       <c r="B169">
-        <v>-24.301604607779662</v>
+        <v>-16.769885235918075</v>
       </c>
       <c r="C169">
-        <v>-31.258754917608407</v>
+        <v>-12.557172960692712</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>-29.231080509899485</v>
+        <v>-19.718010054278039</v>
       </c>
       <c r="B170">
-        <v>-24.456893841580705</v>
+        <v>-16.877532076185719</v>
       </c>
       <c r="C170">
-        <v>-31.285580806370845</v>
+        <v>-12.64572977233</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>-29.32821282920753</v>
+        <v>-19.717508567347636</v>
       </c>
       <c r="B171">
-        <v>-24.586300884739074</v>
+        <v>-16.969215678199127</v>
       </c>
       <c r="C171">
-        <v>-31.368343580771558</v>
+        <v>-12.842472844246643</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>-29.422975976997591</v>
+        <v>-19.653292162445847</v>
       </c>
       <c r="B172">
-        <v>-24.692748231987927</v>
+        <v>-17.051651530781346</v>
       </c>
       <c r="C172">
-        <v>-31.492131723774648</v>
+        <v>-13.131755626516732</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>-29.513211542005983</v>
+        <v>-19.540465157522988</v>
       </c>
       <c r="B173">
-        <v>-24.779297057143243</v>
+        <v>-17.128645826720302</v>
       </c>
       <c r="C173">
-        <v>-31.643419024018268</v>
+        <v>-13.499952682820346</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>-29.596844527703436</v>
+        <v>-19.394887139208329</v>
       </c>
       <c r="B174">
-        <v>-24.848901695316513</v>
+        <v>-17.201690623608211</v>
       </c>
       <c r="C174">
-        <v>-31.809809956115846</v>
+        <v>-13.934127764911103</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>-29.671939085844947</v>
+        <v>-19.231520059770755</v>
       </c>
       <c r="B175">
-        <v>-24.904244682863098</v>
+        <v>-17.270670120504224</v>
       </c>
       <c r="C175">
-        <v>-31.979922094281878</v>
+        <v>-14.420746150878275</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>-29.736758061425398</v>
+        <v>-19.063486271469497</v>
       </c>
       <c r="B176">
-        <v>-24.947643625098493</v>
+        <v>-17.334590379360325</v>
       </c>
       <c r="C176">
-        <v>-32.143384314747088</v>
+        <v>-14.944301627964794</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>-29.78980829335719</v>
+        <v>-18.901739930837561</v>
       </c>
       <c r="B177">
-        <v>-24.981014134146054</v>
+        <v>-17.392294189011231</v>
       </c>
       <c r="C177">
-        <v>-32.290928762095696</v>
+        <v>-15.485848153706367</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>-29.829885174121507</v>
+        <v>-18.755110461743719</v>
       </c>
       <c r="B178">
-        <v>-25.005870360953356</v>
+        <v>-17.443138209043951</v>
       </c>
       <c r="C178">
-        <v>-32.414552848502154</v>
+        <v>-16.021633719711687</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>-29.856099106359967</v>
+        <v>-18.630532698714429</v>
       </c>
       <c r="B179">
-        <v>-25.023346747789077</v>
+        <v>-17.487586005188032</v>
       </c>
       <c r="C179">
-        <v>-32.507722061042287</v>
+        <v>-16.522317554962797</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>-29.867887960654738</v>
+        <v>-18.533309691864389</v>
       </c>
       <c r="B180">
-        <v>-25.03422734678368</v>
+        <v>-17.527597094671975</v>
       </c>
       <c r="C180">
-        <v>-32.565580584275857</v>
+        <v>-16.95314506765013</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>-29.865021559503969</v>
+        <v>-18.467311936465869</v>
       </c>
       <c r="B181">
-        <v>-25.038972926888</v>
+        <v>-17.566560431180456</v>
       </c>
       <c r="C181">
-        <v>-32.585134373346214</v>
+        <v>-17.272593968980296</v>
       </c>
     </row>
   </sheetData>
